--- a/MyProjects/data/case.xlsx
+++ b/MyProjects/data/case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ff\PycharmProjects\demos\MyProjects\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ff\PycharmProjects\Automation\MyProjects\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>用例编号</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>{"assert": "登录成功"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"skip": 0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"skip":0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,20 +395,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="3" max="3" width="49.75" customWidth="1"/>
-    <col min="4" max="4" width="44.75" customWidth="1"/>
+    <col min="3" max="4" width="49.75" customWidth="1"/>
+    <col min="5" max="5" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,10 +419,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -421,10 +436,13 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -435,10 +453,13 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -449,6 +470,9 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>

--- a/MyProjects/data/case.xlsx
+++ b/MyProjects/data/case.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>用例编号</t>
   </si>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>{"skip":0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"skip":1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,13 +402,14 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="3" max="4" width="49.75" customWidth="1"/>
+    <col min="3" max="3" width="75.5" customWidth="1"/>
+    <col min="4" max="4" width="49.75" customWidth="1"/>
     <col min="5" max="5" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -436,7 +441,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>

--- a/MyProjects/data/case.xlsx
+++ b/MyProjects/data/case.xlsx
@@ -36,22 +36,10 @@
     <t>登录</t>
   </si>
   <si>
-    <t>{"username": "125087817","pwd":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"assert": "账号或密码有误"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"username": "1250878171@qq.com","pwd": "123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username": "1250878171@qq.com","pwd": "111111"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"assert": "账号或密码有误"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +61,18 @@
   </si>
   <si>
     <t>{"skip":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"case_name":"正确用户名、密码","username": "1250878171@qq.com","pwd": "123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"case_name":"用户名错误、密码正确","username": "125087817","pwd":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"case_name":"正确用户名、密码错误","username": "1250878171@qq.com","pwd": "111111"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,13 +402,13 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="3" max="3" width="75.5" customWidth="1"/>
+    <col min="3" max="3" width="96.25" customWidth="1"/>
     <col min="4" max="4" width="49.75" customWidth="1"/>
     <col min="5" max="5" width="44.75" customWidth="1"/>
   </cols>
@@ -424,7 +424,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -438,13 +438,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -455,13 +455,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -472,17 +472,18 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyProjects/data/case.xlsx
+++ b/MyProjects/data/case.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>用例编号</t>
   </si>
@@ -64,15 +64,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"case_name":"正确用户名、密码","username": "1250878171@qq.com","pwd": "123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"case_name":"用户名错误、密码正确","username": "125087817","pwd":"123456"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"case_name":"正确用户名、密码错误","username": "1250878171@qq.com","pwd": "111111"}</t>
+    <t>用例名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username": "1250878171@qq.com","pwd": "123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username": "125087817","pwd":"123456"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"case_name":"正确用户名、密码"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"case_name":"用户名错误、密码正确"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username": "1250878171@qq.com","pwd": "111111"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"case_name":"正确用户名、密码错误"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -399,21 +415,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="3" max="3" width="96.25" customWidth="1"/>
-    <col min="4" max="4" width="49.75" customWidth="1"/>
-    <col min="5" max="5" width="44.75" customWidth="1"/>
+    <col min="3" max="3" width="42.125" customWidth="1"/>
+    <col min="4" max="4" width="49.875" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="44.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,16 +438,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -438,16 +458,19 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -455,16 +478,19 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -472,12 +498,15 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/MyProjects/data/case.xlsx
+++ b/MyProjects/data/case.xlsx
@@ -76,19 +76,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{"case_name":"用户名错误、密码正确"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"username": "1250878171@qq.com","pwd": "111111"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"case_name":"正确用户名、密码错误"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"case_name":"正确用户名、密码"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"case_name":"用户名错误、密码正确"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"username": "1250878171@qq.com","pwd": "111111"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"case_name":"正确用户名、密码错误"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,7 +418,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -458,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -498,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
